--- a/public/AllUsersReport.xlsx
+++ b/public/AllUsersReport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>id</t>
   </si>
@@ -32,37 +32,19 @@
     <t>Adam</t>
   </si>
   <si>
-    <t>$argon2id$v=19$m=65536,t=4,p=1$UWwuU1dNczAuaXR6YVlYRw$QCcupa9XEEwiZ6sMunDxPiJ/5v4it0RvZhl0ryYwOPU</t>
-  </si>
-  <si>
-    <t>adam.zielinskas@wp.pl</t>
+    <t>$argon2id$v=19$m=65536,t=4,p=1$cEhkU1ZxZDc2ci5IdnZHcg$yZSQAm1KQ74FVuG/l/yoGOkHZ6ANDj1+UzgF/AV5y2Y</t>
+  </si>
+  <si>
+    <t>adam@wp.pl</t>
   </si>
   <si>
     <t>Przemek</t>
   </si>
   <si>
-    <t>$argon2id$v=19$m=65536,t=4,p=1$cnZUd3ZuclEyeHNYUXhodA$TC0plvaU6P+lpX92GzcTY88Ayf34Vzr2euxmwHXJ8qs</t>
-  </si>
-  <si>
-    <t>przemop@wp.pl</t>
-  </si>
-  <si>
-    <t>Bartek</t>
-  </si>
-  <si>
-    <t>$argon2id$v=19$m=65536,t=4,p=1$YUo0cnFYVmpwcDFEcC95SA$4NSYTlOe+LC9LSPqj3QxkpdF9h4rw1+VJGXiree46JM</t>
-  </si>
-  <si>
-    <t>bartek@op.pl</t>
-  </si>
-  <si>
-    <t>jozek</t>
-  </si>
-  <si>
-    <t>$argon2id$v=19$m=65536,t=4,p=1$Ykwxc1lnZ0Z3RjJHbHh2Qg$LztP/Hq9Vr+3GzBIOK+Myht7PEVpcXCC3rnJQRAwmjw</t>
-  </si>
-  <si>
-    <t>jozek1@wp.pl</t>
+    <t>$argon2id$v=19$m=65536,t=4,p=1$Wjk1R0hvYnl3RWtSaGpLcg$r3MMHzpYcQYZOkq5XAWPJcJrQjN4mtdjk0bJXjQ4TiU</t>
+  </si>
+  <si>
+    <t>przemek123@wp.pl</t>
   </si>
 </sst>
 </file>
@@ -401,7 +383,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,7 +407,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -439,7 +421,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -449,34 +431,6 @@
       </c>
       <c r="D3" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
